--- a/chunkSizeTesting/osszesitett_ada_teszteles_top_10.xlsx
+++ b/chunkSizeTesting/osszesitett_ada_teszteles_top_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\chunkSizeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6B9AD-F979-4B17-BB1A-E0D620C7789E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8251B03A-186C-4D56-A960-C34B96040BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5E74E1E-11E4-4901-8E82-B3FCD20CC255}"/>
   </bookViews>
@@ -41,19 +41,19 @@
     <t>Chunk méret</t>
   </si>
   <si>
-    <t>Pontosság(%)</t>
-  </si>
-  <si>
-    <t>Átlagos feldolgozási idő</t>
-  </si>
-  <si>
     <t>Chunk (darab) száma</t>
   </si>
   <si>
     <t>Küszöbérték</t>
   </si>
   <si>
-    <t>LLM model : text-embedding-ada-002 ,top_k=10, 20 db kérdésre tesztelve</t>
+    <t>Pontosság  (%)</t>
+  </si>
+  <si>
+    <t>Átlagos feldolgozási idő (s)</t>
+  </si>
+  <si>
+    <t>LLM modell : text-embedding-ada-002 ,top_k=10, 20 db kérdésre tesztelve</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -167,35 +173,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -533,450 +551,450 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>256</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>35</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.70833334922790525</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>139</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>384</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>25</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.78334652185440068</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>101</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>512</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.89839402437210081</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>83</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>768</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.71965758800506596</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>66</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1024</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.93746329545974727</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>61</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>2048</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.75056078433990481</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>52</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="13">
         <v>256</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <v>50</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>0.79658846855163579</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>139</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>0.88</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="13">
         <v>384</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>40</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="13">
         <v>0.73728635311126711</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="13">
         <v>101</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <v>0.88</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <v>512</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="13">
         <v>25</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="13">
         <v>1.0030864953994749</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="13">
         <v>83</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="13">
         <v>0.88</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>768</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.68049299716949463</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>66</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>1024</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>20</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.66743465662002566</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>61</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>2048</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>20</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.6866937398910522</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>52</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="B15" s="13">
         <v>256</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="13">
         <v>70</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="13">
         <v>1.0022083044052119</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="13">
         <v>139</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="13">
         <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="13">
         <v>384</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="13">
         <v>50</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="13">
         <v>0.74128837585449214</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="13">
         <v>101</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="13">
         <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17" s="13">
         <v>512</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="13">
         <v>50</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="13">
         <v>0.6463989853858948</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="13">
         <v>83</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="13">
         <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>768</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>45</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.84835139513015745</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>66</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1024</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>45</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.77130342721939082</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>61</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>2048</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>45</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.72518507242202757</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>52</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>256</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>95</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.94307628870010374</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="7">
+        <v>0.54211946725845339</v>
+      </c>
+      <c r="E21" s="7">
         <v>139</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="7">
         <v>0.82</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>384</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>90</v>
       </c>
-      <c r="D22" s="11">
-        <v>0.7135954618453979</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="8">
+        <v>0.53498320579528813</v>
+      </c>
+      <c r="E22" s="8">
         <v>101</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>0.82</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
+      <c r="B23" s="5">
         <v>512</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>95</v>
       </c>
-      <c r="D23" s="11">
-        <v>0.68493788242340092</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="9">
+        <v>0.57743501663208008</v>
+      </c>
+      <c r="E23" s="9">
         <v>83</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>768</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>70</v>
       </c>
-      <c r="D24" s="4">
-        <v>0.89485247135162349</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="6">
+        <v>0.53199285268783569</v>
+      </c>
+      <c r="E24" s="6">
         <v>66</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6">
         <v>0.82</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>1024</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>65</v>
       </c>
-      <c r="D25" s="4">
-        <v>1.0213669776916501</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="6">
+        <v>0.54078706502914431</v>
+      </c>
+      <c r="E25" s="6">
         <v>61</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="6">
         <v>0.82</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>2048</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>65</v>
       </c>
-      <c r="D26" s="4">
-        <v>0.6756854295730591</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="6">
+        <v>1.380356335639954</v>
+      </c>
+      <c r="E26" s="6">
         <v>52</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6">
         <v>0.82</v>
       </c>
     </row>
